--- a/datebase/Dicionário de dados.xlsx
+++ b/datebase/Dicionário de dados.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/7d0ba2901b2740ae/Documentos/programming/PraticaP2_vesp/datebase/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4BAF603-18B6-4D92-B095-2319C2BE1D7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{E4BAF603-18B6-4D92-B095-2319C2BE1D7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E29A80DF-B686-462D-9B8C-5381A87D0517}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="69">
   <si>
     <t>Tabela</t>
   </si>
@@ -226,6 +226,9 @@
   </si>
   <si>
     <t>FK, NOT NULL</t>
+  </si>
+  <si>
+    <t>UNIQUE, NOT NULL</t>
   </si>
 </sst>
 </file>
@@ -412,7 +415,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -420,24 +423,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -456,44 +450,47 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -800,8 +797,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F33" sqref="F33"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -820,587 +817,587 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="G1" s="10" t="s">
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="G1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
-      <c r="K1" s="4"/>
+      <c r="I1" s="21"/>
+      <c r="J1" s="21"/>
+      <c r="K1" s="21"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="G2" s="10" t="s">
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="G2" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="H2" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4"/>
+      <c r="I2" s="21"/>
+      <c r="J2" s="21"/>
+      <c r="K2" s="21"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="8"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="G3" s="8" t="s">
+      <c r="B3" s="22"/>
+      <c r="C3" s="22"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="22"/>
+      <c r="G3" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="H3" s="8"/>
-      <c r="I3" s="8"/>
-      <c r="J3" s="8"/>
-      <c r="K3" s="8"/>
+      <c r="H3" s="22"/>
+      <c r="I3" s="22"/>
+      <c r="J3" s="22"/>
+      <c r="K3" s="22"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="D4" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="E4" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="G4" s="10" t="s">
+      <c r="G4" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="H4" s="10" t="s">
+      <c r="H4" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="I4" s="10" t="s">
+      <c r="I4" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="J4" s="10" t="s">
+      <c r="J4" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="K4" s="10" t="s">
+      <c r="K4" s="7" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="9" t="s">
+      <c r="A5" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="5">
+      <c r="D5" s="3">
         <v>4</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="E5" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="G5" s="11" t="s">
+      <c r="G5" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="H5" s="5" t="s">
+      <c r="H5" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="I5" s="5" t="s">
+      <c r="I5" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="J5" s="5">
+      <c r="J5" s="3">
         <v>11</v>
       </c>
-      <c r="K5" s="5" t="s">
+      <c r="K5" s="3" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="9" t="s">
+      <c r="A6" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="6">
+      <c r="D6" s="4">
         <v>30</v>
       </c>
-      <c r="E6" s="6" t="s">
+      <c r="E6" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="G6" s="11" t="s">
+      <c r="G6" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="H6" s="5" t="s">
+      <c r="H6" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="I6" s="6" t="s">
+      <c r="I6" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="J6" s="6">
+      <c r="J6" s="4">
         <v>20</v>
       </c>
-      <c r="K6" s="6" t="s">
+      <c r="K6" s="4" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="16"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="15"/>
-      <c r="D7" s="15"/>
-      <c r="E7" s="15"/>
-      <c r="G7" s="12" t="s">
+      <c r="A7" s="12"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="G7" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="H7" s="6" t="s">
+      <c r="H7" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="I7" s="6" t="s">
+      <c r="I7" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="6">
+      <c r="J7" s="4">
         <v>50</v>
       </c>
-      <c r="K7" s="6" t="s">
+      <c r="K7" s="4" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F8" s="2"/>
-      <c r="G8" s="12" t="s">
+      <c r="G8" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="H8" s="6" t="s">
+      <c r="H8" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="I8" s="6" t="s">
+      <c r="I8" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="J8" s="6">
+      <c r="J8" s="4">
         <v>50</v>
       </c>
-      <c r="K8" s="6" t="s">
+      <c r="K8" s="4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="C9" s="21"/>
+      <c r="D9" s="21"/>
+      <c r="E9" s="21"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="I9" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J9" s="4">
+        <v>30</v>
+      </c>
+      <c r="K9" s="4" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="13" t="s">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B10" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="C10" s="21"/>
+      <c r="D10" s="21"/>
+      <c r="E10" s="21"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="I10" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="J10" s="4">
+        <v>8</v>
+      </c>
+      <c r="K10" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="B11" s="22"/>
+      <c r="C11" s="22"/>
+      <c r="D11" s="22"/>
+      <c r="E11" s="22"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="I11" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J11" s="4">
+        <v>60</v>
+      </c>
+      <c r="K11" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="E12" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="F12" s="2"/>
+      <c r="G12" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="I12" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J12" s="4">
+        <v>60</v>
+      </c>
+      <c r="K12" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D13" s="3">
+        <v>6</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="F13" s="2"/>
+      <c r="G13" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="I13" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J13" s="4">
+        <v>3</v>
+      </c>
+      <c r="K13" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D14" s="4">
+        <v>60</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F14" s="2"/>
+      <c r="G14" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="H14" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="I14" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J14" s="4">
+        <v>70</v>
+      </c>
+      <c r="K14" s="4"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F15" s="2"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D16" s="3">
+        <v>8</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D17" s="3">
+        <v>400</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B20" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="C20" s="20"/>
+      <c r="D20" s="20"/>
+      <c r="E20" s="20"/>
+      <c r="F20" s="20"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="B21" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="C21" s="23"/>
+      <c r="D21" s="23"/>
+      <c r="E21" s="24"/>
+      <c r="F21" s="16"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="B22" s="25"/>
+      <c r="C22" s="25"/>
+      <c r="D22" s="25"/>
+      <c r="E22" s="26"/>
+      <c r="F22" s="18"/>
+      <c r="G22" s="19"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="B23" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C23" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="D23" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="E23" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="F23" s="17" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="F24" s="13"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D25" s="3">
+        <v>11</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G25" s="1"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="H9" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="I9" s="6" t="s">
+      <c r="B26" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D26" s="3">
+        <v>6</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="G26" s="1"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F27" s="13"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C28" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="J9" s="6">
-        <v>30</v>
-      </c>
-      <c r="K9" s="6" t="s">
+      <c r="D28" s="3">
+        <v>2</v>
+      </c>
+      <c r="E28" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="13" t="s">
+      <c r="F28" s="13"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D29" s="3">
         <v>1</v>
       </c>
-      <c r="B10" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="H10" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="I10" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="J10" s="6">
-        <v>8</v>
-      </c>
-      <c r="K10" s="6" t="s">
+      <c r="E29" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="B11" s="8"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="H11" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="I11" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="J11" s="6">
-        <v>60</v>
-      </c>
-      <c r="K11" s="6" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="B12" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="C12" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="D12" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="E12" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="F12" s="2"/>
-      <c r="G12" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="H12" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="I12" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="J12" s="6">
-        <v>60</v>
-      </c>
-      <c r="K12" s="6" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D13" s="5">
-        <v>6</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="F13" s="2"/>
-      <c r="G13" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="H13" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="I13" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="J13" s="6">
-        <v>3</v>
-      </c>
-      <c r="K13" s="6" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D14" s="6">
-        <v>60</v>
-      </c>
-      <c r="E14" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="F14" s="2"/>
-      <c r="G14" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="H14" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="I14" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="J14" s="6">
-        <v>70</v>
-      </c>
-      <c r="K14" s="6"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F15" s="2"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D16" s="5">
-        <v>8</v>
-      </c>
-      <c r="E16" s="5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D17" s="5">
-        <v>400</v>
-      </c>
-      <c r="E17" s="5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="B20" s="19" t="s">
-        <v>58</v>
-      </c>
-      <c r="C20" s="19"/>
-      <c r="D20" s="19"/>
-      <c r="E20" s="19"/>
-      <c r="F20" s="19"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="18" t="s">
-        <v>1</v>
-      </c>
-      <c r="B21" s="25" t="s">
-        <v>59</v>
-      </c>
-      <c r="C21" s="25"/>
-      <c r="D21" s="25"/>
-      <c r="E21" s="26"/>
-      <c r="F21" s="22"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="B22" s="20"/>
-      <c r="C22" s="20"/>
-      <c r="D22" s="20"/>
-      <c r="E22" s="23"/>
-      <c r="F22" s="27"/>
-      <c r="G22" s="28"/>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="B23" s="18" t="s">
-        <v>1</v>
-      </c>
-      <c r="C23" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="D23" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="E23" s="18" t="s">
-        <v>6</v>
-      </c>
-      <c r="F23" s="24" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="21" t="s">
-        <v>53</v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="C24" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="D24" s="5"/>
-      <c r="E24" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="F24" s="17"/>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="21" t="s">
-        <v>54</v>
-      </c>
-      <c r="B25" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="C25" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D25" s="5">
-        <v>11</v>
-      </c>
-      <c r="E25" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="F25" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="G25" s="1"/>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="21" t="s">
-        <v>38</v>
-      </c>
-      <c r="B26" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="C26" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D26" s="5">
-        <v>6</v>
-      </c>
-      <c r="E26" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="F26" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="G26" s="1"/>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="21" t="s">
-        <v>55</v>
-      </c>
-      <c r="B27" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="C27" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="D27" s="5"/>
-      <c r="E27" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F27" s="17"/>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="21" t="s">
-        <v>56</v>
-      </c>
-      <c r="B28" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="C28" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D28" s="5">
-        <v>2</v>
-      </c>
-      <c r="E28" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F28" s="17"/>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="21" t="s">
-        <v>57</v>
-      </c>
-      <c r="B29" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="C29" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D29" s="5">
-        <v>1</v>
-      </c>
-      <c r="E29" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F29" s="17"/>
+      <c r="F29" s="13"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B30" s="1"/>
@@ -1416,11 +1413,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="B20:F20"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="B10:E10"/>
-    <mergeCell ref="A11:E11"/>
-    <mergeCell ref="B21:E21"/>
     <mergeCell ref="A22:E22"/>
     <mergeCell ref="B1:E1"/>
     <mergeCell ref="B2:E2"/>
@@ -1428,6 +1420,11 @@
     <mergeCell ref="H1:K1"/>
     <mergeCell ref="H2:K2"/>
     <mergeCell ref="G3:K3"/>
+    <mergeCell ref="B20:F20"/>
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="A11:E11"/>
+    <mergeCell ref="B21:E21"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
